--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Adam11</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H2">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I2">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J2">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.96109371835821</v>
+        <v>0.1162103333333333</v>
       </c>
       <c r="N2">
-        <v>0.96109371835821</v>
+        <v>0.348631</v>
       </c>
       <c r="O2">
-        <v>0.4340928410165579</v>
+        <v>0.04629488601196788</v>
       </c>
       <c r="P2">
-        <v>0.4340928410165579</v>
+        <v>0.04629488601196788</v>
       </c>
       <c r="Q2">
-        <v>9.810414573350238</v>
+        <v>0.002386340458222223</v>
       </c>
       <c r="R2">
-        <v>9.810414573350238</v>
+        <v>0.021477064124</v>
       </c>
       <c r="S2">
-        <v>0.4229618882240171</v>
+        <v>8.935536148216157E-05</v>
       </c>
       <c r="T2">
-        <v>0.4229618882240171</v>
+        <v>8.935536148216157E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,173 +596,669 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H3">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I3">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J3">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25293431331244</v>
+        <v>0.9837333333333333</v>
       </c>
       <c r="N3">
-        <v>1.25293431331244</v>
+        <v>2.9512</v>
       </c>
       <c r="O3">
-        <v>0.5659071589834421</v>
+        <v>0.391891333812884</v>
       </c>
       <c r="P3">
-        <v>0.5659071589834421</v>
+        <v>0.3918913338128841</v>
       </c>
       <c r="Q3">
-        <v>12.78939276366142</v>
+        <v>0.02020063608888889</v>
       </c>
       <c r="R3">
-        <v>12.78939276366142</v>
+        <v>0.1818057248</v>
       </c>
       <c r="S3">
-        <v>0.5513962404047014</v>
+        <v>0.000756403024418813</v>
       </c>
       <c r="T3">
-        <v>0.5513962404047014</v>
+        <v>0.0007564030244188131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.268628895424528</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H4">
-        <v>0.268628895424528</v>
+        <v>0.061604</v>
       </c>
       <c r="I4">
-        <v>0.02564187137128136</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J4">
-        <v>0.02564187137128136</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.96109371835821</v>
+        <v>0.02329033333333333</v>
       </c>
       <c r="N4">
-        <v>0.96109371835821</v>
+        <v>0.069871</v>
       </c>
       <c r="O4">
-        <v>0.4340928410165579</v>
+        <v>0.009278205267294667</v>
       </c>
       <c r="P4">
-        <v>0.4340928410165579</v>
+        <v>0.009278205267294668</v>
       </c>
       <c r="Q4">
-        <v>0.2581775439620184</v>
+        <v>0.0004782592315555555</v>
       </c>
       <c r="R4">
-        <v>0.2581775439620184</v>
+        <v>0.004304333084</v>
       </c>
       <c r="S4">
-        <v>0.01113095279254067</v>
+        <v>1.790818504986679E-05</v>
       </c>
       <c r="T4">
-        <v>0.01113095279254067</v>
+        <v>1.79081850498668E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.02053466666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.061604</v>
+      </c>
+      <c r="I5">
+        <v>0.001930134604048101</v>
+      </c>
+      <c r="J5">
+        <v>0.001930134604048101</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.386985666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.160957</v>
+      </c>
+      <c r="O5">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="P5">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="Q5">
+        <v>0.02848128833644445</v>
+      </c>
+      <c r="R5">
+        <v>0.256331595028</v>
+      </c>
+      <c r="S5">
+        <v>0.001066468033097259</v>
+      </c>
+      <c r="T5">
+        <v>0.001066468033097259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10.27464766666667</v>
+      </c>
+      <c r="H6">
+        <v>30.823943</v>
+      </c>
+      <c r="I6">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="J6">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1162103333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.348631</v>
+      </c>
+      <c r="O6">
+        <v>0.04629488601196788</v>
+      </c>
+      <c r="P6">
+        <v>0.04629488601196788</v>
+      </c>
+      <c r="Q6">
+        <v>1.194020230225889</v>
+      </c>
+      <c r="R6">
+        <v>10.746182072033</v>
+      </c>
+      <c r="S6">
+        <v>0.04470950862071528</v>
+      </c>
+      <c r="T6">
+        <v>0.04470950862071528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10.27464766666667</v>
+      </c>
+      <c r="H7">
+        <v>30.823943</v>
+      </c>
+      <c r="I7">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="J7">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9837333333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.9512</v>
+      </c>
+      <c r="O7">
+        <v>0.391891333812884</v>
+      </c>
+      <c r="P7">
+        <v>0.3918913338128841</v>
+      </c>
+      <c r="Q7">
+        <v>10.10751339795556</v>
+      </c>
+      <c r="R7">
+        <v>90.9676205816</v>
+      </c>
+      <c r="S7">
+        <v>0.3784709387330871</v>
+      </c>
+      <c r="T7">
+        <v>0.3784709387330872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.27464766666667</v>
+      </c>
+      <c r="H8">
+        <v>30.823943</v>
+      </c>
+      <c r="I8">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="J8">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02329033333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.069871</v>
+      </c>
+      <c r="O8">
+        <v>0.009278205267294667</v>
+      </c>
+      <c r="P8">
+        <v>0.009278205267294668</v>
+      </c>
+      <c r="Q8">
+        <v>0.2392999690392222</v>
+      </c>
+      <c r="R8">
+        <v>2.153699721353</v>
+      </c>
+      <c r="S8">
+        <v>0.008960471320215347</v>
+      </c>
+      <c r="T8">
+        <v>0.008960471320215348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.27464766666667</v>
+      </c>
+      <c r="H9">
+        <v>30.823943</v>
+      </c>
+      <c r="I9">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="J9">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.386985666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.160957</v>
+      </c>
+      <c r="O9">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="P9">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="Q9">
+        <v>14.25078904371678</v>
+      </c>
+      <c r="R9">
+        <v>128.257101393451</v>
+      </c>
+      <c r="S9">
+        <v>0.5336138864929555</v>
+      </c>
+      <c r="T9">
+        <v>0.5336138864929555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.031398</v>
+      </c>
+      <c r="I10">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J10">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1162103333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.348631</v>
+      </c>
+      <c r="O10">
+        <v>0.04629488601196788</v>
+      </c>
+      <c r="P10">
+        <v>0.04629488601196788</v>
+      </c>
+      <c r="Q10">
+        <v>0.03995303512644444</v>
+      </c>
+      <c r="R10">
+        <v>0.359577316138</v>
+      </c>
+      <c r="S10">
+        <v>0.001496022029770445</v>
+      </c>
+      <c r="T10">
+        <v>0.001496022029770444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.268628895424528</v>
-      </c>
-      <c r="H5">
-        <v>0.268628895424528</v>
-      </c>
-      <c r="I5">
-        <v>0.02564187137128136</v>
-      </c>
-      <c r="J5">
-        <v>0.02564187137128136</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.25293431331244</v>
-      </c>
-      <c r="N5">
-        <v>1.25293431331244</v>
-      </c>
-      <c r="O5">
-        <v>0.5659071589834421</v>
-      </c>
-      <c r="P5">
-        <v>0.5659071589834421</v>
-      </c>
-      <c r="Q5">
-        <v>0.3365743606246103</v>
-      </c>
-      <c r="R5">
-        <v>0.3365743606246103</v>
-      </c>
-      <c r="S5">
-        <v>0.01451091857874069</v>
-      </c>
-      <c r="T5">
-        <v>0.01451091857874069</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.031398</v>
+      </c>
+      <c r="I11">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J11">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9837333333333333</v>
+      </c>
+      <c r="N11">
+        <v>2.9512</v>
+      </c>
+      <c r="O11">
+        <v>0.391891333812884</v>
+      </c>
+      <c r="P11">
+        <v>0.3918913338128841</v>
+      </c>
+      <c r="Q11">
+        <v>0.3382068641777777</v>
+      </c>
+      <c r="R11">
+        <v>3.0438617776</v>
+      </c>
+      <c r="S11">
+        <v>0.01266399205537814</v>
+      </c>
+      <c r="T11">
+        <v>0.01266399205537814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.031398</v>
+      </c>
+      <c r="I12">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J12">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02329033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.069871</v>
+      </c>
+      <c r="O12">
+        <v>0.009278205267294667</v>
+      </c>
+      <c r="P12">
+        <v>0.009278205267294668</v>
+      </c>
+      <c r="Q12">
+        <v>0.008007201073111109</v>
+      </c>
+      <c r="R12">
+        <v>0.072064809658</v>
+      </c>
+      <c r="S12">
+        <v>0.0002998257620294544</v>
+      </c>
+      <c r="T12">
+        <v>0.0002998257620294544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.031398</v>
+      </c>
+      <c r="I13">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J13">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.386985666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.160957</v>
+      </c>
+      <c r="O13">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="P13">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="Q13">
+        <v>0.4768447475428889</v>
+      </c>
+      <c r="R13">
+        <v>4.291602727885999</v>
+      </c>
+      <c r="S13">
+        <v>0.01785522038180064</v>
+      </c>
+      <c r="T13">
+        <v>0.01785522038180064</v>
       </c>
     </row>
   </sheetData>
